--- a/Input/MATSimInputOFROUDenges.xlsx
+++ b/Input/MATSimInputOFROUDenges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07166B5A-1E64-48F3-810D-100C3E95E983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F63B7-653F-4968-BBA2-EBEB63E95A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>P2</t>
   </si>
@@ -253,7 +253,10 @@
     <t>1112a</t>
   </si>
   <si>
-    <t>AGB</t>
+    <t>TrafficName</t>
+  </si>
+  <si>
+    <t>Denges2003</t>
   </si>
 </sst>
 </file>
@@ -906,19 +909,20 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="12.73046875" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="8" max="12" width="12.73046875" customWidth="1"/>
+    <col min="15" max="15" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -965,38 +969,38 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
         <v>2000000</v>
       </c>
-      <c r="B2" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="12">
+        <v>500</v>
+      </c>
+      <c r="C2" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="12">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="12">
         <v>0</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="12">
         <v>1</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="12">
         <v>0</v>
       </c>
       <c r="L2" s="12">
@@ -1008,11 +1012,11 @@
       <c r="N2" s="12">
         <v>1</v>
       </c>
-      <c r="O2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
@@ -1025,22 +1029,22 @@
   <dimension ref="A1:K584"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="10"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="10"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1067,192 +1071,192 @@
       </c>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>85</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="12">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="12">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="12">
         <v>0</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>15</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
+      <c r="B3" s="12">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="10">
+      <c r="G3" s="12">
         <v>2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="12">
         <v>1</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="G4" s="12">
         <v>4</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <v>2</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>6</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="12">
         <v>3</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10">
+      <c r="G6" s="12">
         <v>8</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <v>4</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10">
+      <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <v>5</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10">
+      <c r="G8" s="12">
         <v>12</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="12">
         <v>4</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10">
+      <c r="G9" s="12">
         <v>14</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <v>3</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10">
+      <c r="G10" s="12">
         <v>16</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="12">
         <v>2</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10">
+      <c r="G11" s="12">
         <v>18</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="12">
         <v>1</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>20</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="12">
         <v>0</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1263,7 +1267,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1274,7 +1278,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1285,7 +1289,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1296,7 +1300,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1307,7 +1311,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1318,7 +1322,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1329,7 +1333,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1340,7 +1344,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1351,7 +1355,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1362,7 +1366,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1373,7 +1377,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1384,7 +1388,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1395,7 +1399,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1406,7 +1410,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1417,7 +1421,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1428,7 +1432,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1439,7 +1443,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1450,7 +1454,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1461,7 +1465,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1472,7 +1476,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F33" s="10"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -1480,2766 +1484,2766 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F34" s="10"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F35" s="10"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F36" s="10"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F37" s="10"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F38" s="10"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F39" s="10"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F40" s="10"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F41" s="10"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F42" s="10"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F43" s="10"/>
       <c r="G43" s="13"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F44" s="10"/>
       <c r="G44" s="13"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F45" s="10"/>
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F46" s="10"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F47" s="10"/>
       <c r="G47" s="13"/>
       <c r="H47" s="14"/>
     </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F48" s="10"/>
       <c r="G48" s="13"/>
       <c r="H48" s="14"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F49" s="10"/>
       <c r="G49" s="13"/>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F50" s="10"/>
       <c r="G50" s="13"/>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F51" s="10"/>
       <c r="G51" s="13"/>
       <c r="H51" s="14"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F52" s="10"/>
       <c r="G52" s="13"/>
       <c r="H52" s="14"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F53" s="10"/>
       <c r="G53" s="13"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F54" s="10"/>
       <c r="G54" s="15"/>
       <c r="H54" s="14"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F55" s="10"/>
       <c r="G55" s="15"/>
       <c r="H55" s="14"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F56" s="10"/>
       <c r="G56" s="15"/>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F57" s="10"/>
       <c r="G57" s="15"/>
       <c r="H57" s="14"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F58" s="10"/>
       <c r="G58" s="15"/>
       <c r="H58" s="14"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F59" s="10"/>
       <c r="G59" s="15"/>
       <c r="H59" s="14"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F60" s="10"/>
       <c r="G60" s="15"/>
       <c r="H60" s="14"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F61" s="10"/>
       <c r="G61" s="15"/>
       <c r="H61" s="14"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F62" s="10"/>
       <c r="G62" s="15"/>
       <c r="H62" s="14"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F63" s="10"/>
       <c r="G63" s="15"/>
       <c r="H63" s="14"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F64" s="10"/>
       <c r="G64" s="15"/>
       <c r="H64" s="14"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F65" s="10"/>
       <c r="G65" s="15"/>
       <c r="H65" s="14"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F66" s="10"/>
       <c r="G66" s="15"/>
       <c r="H66" s="14"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F67" s="10"/>
       <c r="G67" s="15"/>
       <c r="H67" s="14"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F68" s="10"/>
       <c r="G68" s="15"/>
       <c r="H68" s="14"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F69" s="10"/>
       <c r="G69" s="15"/>
       <c r="H69" s="14"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F70" s="10"/>
       <c r="G70" s="15"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F71" s="10"/>
       <c r="G71" s="15"/>
       <c r="H71" s="14"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F72" s="10"/>
       <c r="G72" s="15"/>
       <c r="H72" s="14"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F73" s="10"/>
       <c r="G73" s="15"/>
       <c r="H73" s="14"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F74" s="10"/>
       <c r="G74" s="15"/>
       <c r="H74" s="14"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F75" s="10"/>
       <c r="G75" s="15"/>
       <c r="H75" s="14"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F76" s="10"/>
       <c r="G76" s="15"/>
       <c r="H76" s="14"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F77" s="10"/>
       <c r="G77" s="15"/>
       <c r="H77" s="14"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F78" s="10"/>
       <c r="G78" s="15"/>
       <c r="H78" s="14"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F79" s="10"/>
       <c r="G79" s="15"/>
       <c r="H79" s="14"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F80" s="10"/>
       <c r="G80" s="15"/>
       <c r="H80" s="14"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F81" s="10"/>
       <c r="G81" s="15"/>
       <c r="H81" s="14"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F82" s="10"/>
       <c r="G82" s="15"/>
       <c r="H82" s="14"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F83" s="10"/>
       <c r="G83" s="15"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F84" s="10"/>
       <c r="G84" s="15"/>
       <c r="H84" s="14"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F85" s="10"/>
       <c r="G85" s="15"/>
       <c r="H85" s="14"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F86" s="10"/>
       <c r="G86" s="15"/>
       <c r="H86" s="14"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F87" s="10"/>
       <c r="G87" s="15"/>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F88" s="10"/>
       <c r="G88" s="15"/>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F89" s="10"/>
       <c r="G89" s="15"/>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F90" s="10"/>
       <c r="G90" s="15"/>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F91" s="10"/>
       <c r="G91" s="15"/>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F92" s="10"/>
       <c r="G92" s="15"/>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F93" s="10"/>
       <c r="G93" s="15"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F94" s="10"/>
       <c r="G94" s="15"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F95" s="10"/>
       <c r="G95" s="15"/>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F96" s="10"/>
       <c r="G96" s="15"/>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F97" s="10"/>
       <c r="G97" s="15"/>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F98" s="10"/>
       <c r="G98" s="15"/>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F99" s="10"/>
       <c r="G99" s="15"/>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F100" s="10"/>
       <c r="G100" s="15"/>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F101" s="10"/>
       <c r="G101" s="15"/>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F102" s="10"/>
       <c r="G102" s="15"/>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F103" s="10"/>
       <c r="G103" s="15"/>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F104" s="10"/>
       <c r="G104" s="15"/>
       <c r="H104" s="14"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F105" s="10"/>
       <c r="G105" s="15"/>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F106" s="10"/>
       <c r="G106" s="15"/>
       <c r="H106" s="14"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F107" s="10"/>
       <c r="G107" s="15"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F108" s="10"/>
       <c r="G108" s="15"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F109" s="10"/>
       <c r="G109" s="15"/>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F110" s="10"/>
       <c r="G110" s="15"/>
       <c r="H110" s="14"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F111" s="10"/>
       <c r="G111" s="15"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F112" s="10"/>
       <c r="G112" s="15"/>
       <c r="H112" s="14"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F113" s="10"/>
       <c r="G113" s="15"/>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F114" s="10"/>
       <c r="G114" s="15"/>
       <c r="H114" s="14"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F115" s="10"/>
       <c r="G115" s="15"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F116" s="10"/>
       <c r="G116" s="15"/>
       <c r="H116" s="14"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F117" s="10"/>
       <c r="G117" s="15"/>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F118" s="10"/>
       <c r="G118" s="15"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F119" s="10"/>
       <c r="G119" s="15"/>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F120" s="10"/>
       <c r="G120" s="15"/>
       <c r="H120" s="14"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F121" s="10"/>
       <c r="G121" s="15"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F122" s="10"/>
       <c r="G122" s="15"/>
       <c r="H122" s="14"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F123" s="10"/>
       <c r="G123" s="15"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F124" s="10"/>
       <c r="G124" s="15"/>
       <c r="H124" s="14"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F125" s="10"/>
       <c r="G125" s="15"/>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F126" s="10"/>
       <c r="G126" s="15"/>
       <c r="H126" s="14"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F127" s="10"/>
       <c r="G127" s="15"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F128" s="10"/>
       <c r="G128" s="15"/>
       <c r="H128" s="14"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F129" s="10"/>
       <c r="G129" s="15"/>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F130" s="10"/>
       <c r="G130" s="15"/>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F131" s="10"/>
       <c r="G131" s="15"/>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F132" s="10"/>
       <c r="G132" s="15"/>
       <c r="H132" s="14"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F133" s="10"/>
       <c r="G133" s="15"/>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F134" s="10"/>
       <c r="G134" s="15"/>
       <c r="H134" s="14"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F135" s="10"/>
       <c r="G135" s="15"/>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F136" s="10"/>
       <c r="G136" s="15"/>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F137" s="10"/>
       <c r="G137" s="15"/>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F138" s="10"/>
       <c r="G138" s="15"/>
       <c r="H138" s="14"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F139" s="10"/>
       <c r="G139" s="15"/>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F140" s="10"/>
       <c r="G140" s="15"/>
       <c r="H140" s="14"/>
     </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F141" s="10"/>
       <c r="G141" s="15"/>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F142" s="10"/>
       <c r="G142" s="15"/>
       <c r="H142" s="14"/>
     </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F143" s="10"/>
       <c r="G143" s="15"/>
       <c r="H143" s="14"/>
     </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F144" s="10"/>
       <c r="G144" s="15"/>
       <c r="H144" s="14"/>
     </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F145" s="10"/>
       <c r="G145" s="15"/>
       <c r="H145" s="14"/>
     </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F146" s="10"/>
       <c r="G146" s="15"/>
       <c r="H146" s="14"/>
     </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F147" s="10"/>
       <c r="G147" s="15"/>
       <c r="H147" s="14"/>
     </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F148" s="10"/>
       <c r="G148" s="15"/>
       <c r="H148" s="14"/>
     </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F149" s="10"/>
       <c r="G149" s="15"/>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F150" s="10"/>
       <c r="G150" s="15"/>
       <c r="H150" s="14"/>
     </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F151" s="10"/>
       <c r="G151" s="15"/>
       <c r="H151" s="14"/>
     </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F152" s="10"/>
       <c r="G152" s="15"/>
       <c r="H152" s="14"/>
     </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F153" s="10"/>
       <c r="G153" s="15"/>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F154" s="10"/>
       <c r="G154" s="15"/>
       <c r="H154" s="14"/>
     </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F155" s="10"/>
       <c r="G155" s="15"/>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F156" s="10"/>
       <c r="G156" s="15"/>
       <c r="H156" s="14"/>
     </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F157" s="10"/>
       <c r="G157" s="15"/>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F158" s="10"/>
       <c r="G158" s="15"/>
       <c r="H158" s="14"/>
     </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F159" s="10"/>
       <c r="G159" s="15"/>
       <c r="H159" s="14"/>
     </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F160" s="10"/>
       <c r="G160" s="15"/>
       <c r="H160" s="14"/>
     </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F161" s="10"/>
       <c r="G161" s="15"/>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F162" s="10"/>
       <c r="G162" s="15"/>
       <c r="H162" s="14"/>
     </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F163" s="10"/>
       <c r="G163" s="15"/>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F164" s="10"/>
       <c r="G164" s="15"/>
       <c r="H164" s="14"/>
     </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F165" s="10"/>
       <c r="G165" s="15"/>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F166" s="10"/>
       <c r="G166" s="15"/>
       <c r="H166" s="14"/>
     </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F167" s="10"/>
       <c r="G167" s="15"/>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F168" s="10"/>
       <c r="G168" s="15"/>
       <c r="H168" s="14"/>
     </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F169" s="10"/>
       <c r="G169" s="15"/>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F170" s="10"/>
       <c r="G170" s="15"/>
       <c r="H170" s="14"/>
     </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F171" s="10"/>
       <c r="G171" s="15"/>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F172" s="10"/>
       <c r="G172" s="15"/>
       <c r="H172" s="14"/>
     </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F173" s="10"/>
       <c r="G173" s="15"/>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F174" s="10"/>
       <c r="G174" s="15"/>
       <c r="H174" s="14"/>
     </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F175" s="10"/>
       <c r="G175" s="15"/>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F176" s="10"/>
       <c r="G176" s="15"/>
       <c r="H176" s="14"/>
     </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F177" s="10"/>
       <c r="G177" s="15"/>
       <c r="H177" s="14"/>
     </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F178" s="10"/>
       <c r="G178" s="15"/>
       <c r="H178" s="14"/>
     </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F179" s="10"/>
       <c r="G179" s="15"/>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F180" s="10"/>
       <c r="G180" s="15"/>
       <c r="H180" s="14"/>
     </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F181" s="10"/>
       <c r="G181" s="15"/>
       <c r="H181" s="14"/>
     </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F182" s="10"/>
       <c r="G182" s="15"/>
       <c r="H182" s="14"/>
     </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F183" s="10"/>
       <c r="G183" s="15"/>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F184" s="10"/>
       <c r="G184" s="15"/>
       <c r="H184" s="14"/>
     </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F185" s="10"/>
       <c r="G185" s="15"/>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F186" s="10"/>
       <c r="G186" s="15"/>
       <c r="H186" s="14"/>
     </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F187" s="10"/>
       <c r="G187" s="15"/>
       <c r="H187" s="14"/>
     </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F188" s="10"/>
       <c r="G188" s="15"/>
       <c r="H188" s="14"/>
     </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F189" s="10"/>
       <c r="G189" s="15"/>
       <c r="H189" s="14"/>
     </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F190" s="10"/>
       <c r="G190" s="15"/>
       <c r="H190" s="14"/>
     </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F191" s="10"/>
       <c r="G191" s="15"/>
       <c r="H191" s="14"/>
     </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F192" s="10"/>
       <c r="G192" s="15"/>
       <c r="H192" s="14"/>
     </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F193" s="10"/>
       <c r="G193" s="15"/>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F194" s="10"/>
       <c r="G194" s="15"/>
       <c r="H194" s="14"/>
     </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F195" s="10"/>
       <c r="G195" s="15"/>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F196" s="10"/>
       <c r="G196" s="15"/>
       <c r="H196" s="14"/>
     </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F197" s="10"/>
       <c r="G197" s="15"/>
       <c r="H197" s="14"/>
     </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F198" s="10"/>
       <c r="G198" s="15"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F199" s="10"/>
       <c r="G199" s="15"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F200" s="10"/>
       <c r="G200" s="15"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F201" s="10"/>
       <c r="G201" s="15"/>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F202" s="10"/>
       <c r="G202" s="15"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F203" s="10"/>
       <c r="G203" s="15"/>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F204" s="10"/>
       <c r="G204" s="15"/>
       <c r="H204" s="14"/>
     </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F205" s="10"/>
       <c r="G205" s="15"/>
       <c r="H205" s="14"/>
     </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F206" s="10"/>
       <c r="G206" s="15"/>
       <c r="H206" s="14"/>
     </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F207" s="10"/>
       <c r="G207" s="15"/>
       <c r="H207" s="14"/>
     </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F208" s="10"/>
       <c r="G208" s="15"/>
       <c r="H208" s="14"/>
     </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F209" s="10"/>
       <c r="G209" s="15"/>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F210" s="10"/>
       <c r="G210" s="15"/>
       <c r="H210" s="14"/>
     </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F211" s="10"/>
       <c r="G211" s="15"/>
       <c r="H211" s="14"/>
     </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F212" s="10"/>
       <c r="G212" s="15"/>
       <c r="H212" s="14"/>
     </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F213" s="10"/>
       <c r="G213" s="15"/>
       <c r="H213" s="14"/>
     </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F214" s="10"/>
       <c r="G214" s="15"/>
       <c r="H214" s="14"/>
     </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F215" s="10"/>
       <c r="G215" s="15"/>
       <c r="H215" s="14"/>
     </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F216" s="10"/>
       <c r="G216" s="15"/>
       <c r="H216" s="14"/>
     </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F217" s="10"/>
       <c r="G217" s="15"/>
       <c r="H217" s="14"/>
     </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F218" s="10"/>
       <c r="G218" s="15"/>
       <c r="H218" s="14"/>
     </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F219" s="10"/>
       <c r="G219" s="15"/>
       <c r="H219" s="14"/>
     </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F220" s="10"/>
       <c r="G220" s="15"/>
       <c r="H220" s="14"/>
     </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F221" s="10"/>
       <c r="G221" s="15"/>
       <c r="H221" s="14"/>
     </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F222" s="10"/>
       <c r="G222" s="15"/>
       <c r="H222" s="14"/>
     </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F223" s="10"/>
       <c r="G223" s="15"/>
       <c r="H223" s="14"/>
     </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F224" s="10"/>
       <c r="G224" s="15"/>
       <c r="H224" s="14"/>
     </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F225" s="10"/>
       <c r="G225" s="15"/>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F226" s="10"/>
       <c r="G226" s="15"/>
       <c r="H226" s="14"/>
     </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F227" s="10"/>
       <c r="G227" s="15"/>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F228" s="10"/>
       <c r="G228" s="15"/>
       <c r="H228" s="14"/>
     </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F229" s="10"/>
       <c r="G229" s="15"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F230" s="10"/>
       <c r="G230" s="15"/>
       <c r="H230" s="14"/>
     </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F231" s="10"/>
       <c r="G231" s="15"/>
       <c r="H231" s="14"/>
     </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F232" s="10"/>
       <c r="G232" s="15"/>
       <c r="H232" s="14"/>
     </row>
-    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F233" s="10"/>
       <c r="G233" s="15"/>
       <c r="H233" s="14"/>
     </row>
-    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F234" s="10"/>
       <c r="G234" s="15"/>
       <c r="H234" s="14"/>
     </row>
-    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F235" s="10"/>
       <c r="G235" s="15"/>
       <c r="H235" s="14"/>
     </row>
-    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F236" s="10"/>
       <c r="G236" s="15"/>
       <c r="H236" s="14"/>
     </row>
-    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F237" s="10"/>
       <c r="G237" s="15"/>
       <c r="H237" s="14"/>
     </row>
-    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F238" s="10"/>
       <c r="G238" s="15"/>
       <c r="H238" s="14"/>
     </row>
-    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F239" s="10"/>
       <c r="G239" s="15"/>
       <c r="H239" s="14"/>
     </row>
-    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F240" s="10"/>
       <c r="G240" s="15"/>
       <c r="H240" s="14"/>
     </row>
-    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F241" s="10"/>
       <c r="G241" s="15"/>
       <c r="H241" s="14"/>
     </row>
-    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F242" s="10"/>
       <c r="G242" s="15"/>
       <c r="H242" s="14"/>
     </row>
-    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F243" s="10"/>
       <c r="G243" s="15"/>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F244" s="10"/>
       <c r="G244" s="15"/>
       <c r="H244" s="14"/>
     </row>
-    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F245" s="10"/>
       <c r="G245" s="15"/>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F246" s="10"/>
       <c r="G246" s="15"/>
       <c r="H246" s="14"/>
     </row>
-    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F247" s="10"/>
       <c r="G247" s="15"/>
       <c r="H247" s="14"/>
     </row>
-    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F248" s="10"/>
       <c r="G248" s="15"/>
       <c r="H248" s="14"/>
     </row>
-    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F249" s="10"/>
       <c r="G249" s="15"/>
       <c r="H249" s="14"/>
     </row>
-    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F250" s="10"/>
       <c r="G250" s="15"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F251" s="10"/>
       <c r="G251" s="15"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F252" s="10"/>
       <c r="G252" s="15"/>
       <c r="H252" s="14"/>
     </row>
-    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F253" s="10"/>
       <c r="G253" s="15"/>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F254" s="10"/>
       <c r="G254" s="15"/>
       <c r="H254" s="14"/>
     </row>
-    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F255" s="10"/>
       <c r="G255" s="15"/>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F256" s="10"/>
       <c r="G256" s="15"/>
       <c r="H256" s="14"/>
     </row>
-    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F257" s="10"/>
       <c r="G257" s="15"/>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F258" s="10"/>
       <c r="G258" s="15"/>
       <c r="H258" s="14"/>
     </row>
-    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F259" s="10"/>
       <c r="G259" s="15"/>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F260" s="10"/>
       <c r="G260" s="15"/>
       <c r="H260" s="14"/>
     </row>
-    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F261" s="10"/>
       <c r="G261" s="15"/>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F262" s="10"/>
       <c r="G262" s="15"/>
       <c r="H262" s="14"/>
     </row>
-    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F263" s="10"/>
       <c r="G263" s="15"/>
       <c r="H263" s="14"/>
     </row>
-    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F264" s="10"/>
       <c r="G264" s="15"/>
       <c r="H264" s="14"/>
     </row>
-    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F265" s="10"/>
       <c r="G265" s="15"/>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F266" s="10"/>
       <c r="G266" s="15"/>
       <c r="H266" s="14"/>
     </row>
-    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F267" s="10"/>
       <c r="G267" s="15"/>
       <c r="H267" s="14"/>
     </row>
-    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F268" s="10"/>
       <c r="G268" s="15"/>
       <c r="H268" s="14"/>
     </row>
-    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F269" s="10"/>
       <c r="G269" s="15"/>
       <c r="H269" s="14"/>
     </row>
-    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F270" s="10"/>
       <c r="G270" s="15"/>
       <c r="H270" s="14"/>
     </row>
-    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F271" s="10"/>
       <c r="G271" s="15"/>
       <c r="H271" s="14"/>
     </row>
-    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F272" s="10"/>
       <c r="G272" s="15"/>
       <c r="H272" s="14"/>
     </row>
-    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F273" s="10"/>
       <c r="G273" s="15"/>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F274" s="10"/>
       <c r="G274" s="15"/>
       <c r="H274" s="14"/>
     </row>
-    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F275" s="10"/>
       <c r="G275" s="15"/>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F276" s="10"/>
       <c r="G276" s="15"/>
       <c r="H276" s="14"/>
     </row>
-    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F277" s="10"/>
       <c r="G277" s="15"/>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F278" s="10"/>
       <c r="G278" s="15"/>
       <c r="H278" s="14"/>
     </row>
-    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F279" s="10"/>
       <c r="G279" s="15"/>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F280" s="10"/>
       <c r="G280" s="15"/>
       <c r="H280" s="14"/>
     </row>
-    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F281" s="10"/>
       <c r="G281" s="15"/>
       <c r="H281" s="14"/>
     </row>
-    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F282" s="10"/>
       <c r="G282" s="15"/>
       <c r="H282" s="14"/>
     </row>
-    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F283" s="10"/>
       <c r="G283" s="15"/>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F284" s="10"/>
       <c r="G284" s="15"/>
       <c r="H284" s="14"/>
     </row>
-    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F285" s="10"/>
       <c r="G285" s="15"/>
       <c r="H285" s="14"/>
     </row>
-    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F286" s="10"/>
       <c r="G286" s="15"/>
       <c r="H286" s="14"/>
     </row>
-    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F287" s="10"/>
       <c r="G287" s="15"/>
       <c r="H287" s="14"/>
     </row>
-    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F288" s="10"/>
       <c r="G288" s="15"/>
       <c r="H288" s="14"/>
     </row>
-    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F289" s="10"/>
       <c r="G289" s="15"/>
       <c r="H289" s="14"/>
     </row>
-    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F290" s="10"/>
       <c r="G290" s="15"/>
       <c r="H290" s="14"/>
     </row>
-    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F291" s="10"/>
       <c r="G291" s="15"/>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F292" s="10"/>
       <c r="G292" s="15"/>
       <c r="H292" s="14"/>
     </row>
-    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F293" s="10"/>
       <c r="G293" s="15"/>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F294" s="10"/>
       <c r="G294" s="15"/>
       <c r="H294" s="14"/>
     </row>
-    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F295" s="10"/>
       <c r="G295" s="15"/>
       <c r="H295" s="14"/>
     </row>
-    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F296" s="10"/>
       <c r="G296" s="15"/>
       <c r="H296" s="14"/>
     </row>
-    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F297" s="10"/>
       <c r="G297" s="15"/>
       <c r="H297" s="14"/>
     </row>
-    <row r="298" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F298" s="10"/>
       <c r="G298" s="15"/>
       <c r="H298" s="14"/>
     </row>
-    <row r="299" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F299" s="10"/>
       <c r="G299" s="15"/>
       <c r="H299" s="14"/>
     </row>
-    <row r="300" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F300" s="10"/>
       <c r="G300" s="15"/>
       <c r="H300" s="14"/>
     </row>
-    <row r="301" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F301" s="10"/>
       <c r="G301" s="15"/>
       <c r="H301" s="14"/>
     </row>
-    <row r="302" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F302" s="10"/>
       <c r="G302" s="15"/>
       <c r="H302" s="14"/>
     </row>
-    <row r="303" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F303" s="10"/>
       <c r="G303" s="15"/>
       <c r="H303" s="14"/>
     </row>
-    <row r="304" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F304" s="10"/>
       <c r="G304" s="15"/>
       <c r="H304" s="14"/>
     </row>
-    <row r="305" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F305" s="10"/>
       <c r="G305" s="15"/>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F306" s="10"/>
       <c r="G306" s="15"/>
       <c r="H306" s="14"/>
     </row>
-    <row r="307" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F307" s="10"/>
       <c r="G307" s="15"/>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F308" s="10"/>
       <c r="G308" s="15"/>
       <c r="H308" s="14"/>
     </row>
-    <row r="309" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F309" s="10"/>
       <c r="G309" s="15"/>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F310" s="10"/>
       <c r="G310" s="15"/>
       <c r="H310" s="14"/>
     </row>
-    <row r="311" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F311" s="10"/>
       <c r="G311" s="15"/>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F312" s="10"/>
       <c r="G312" s="15"/>
       <c r="H312" s="14"/>
     </row>
-    <row r="313" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F313" s="10"/>
       <c r="G313" s="15"/>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F314" s="10"/>
       <c r="G314" s="15"/>
       <c r="H314" s="14"/>
     </row>
-    <row r="315" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F315" s="10"/>
       <c r="G315" s="15"/>
       <c r="H315" s="14"/>
     </row>
-    <row r="316" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F316" s="10"/>
       <c r="G316" s="15"/>
       <c r="H316" s="14"/>
     </row>
-    <row r="317" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F317" s="10"/>
       <c r="G317" s="15"/>
       <c r="H317" s="14"/>
     </row>
-    <row r="318" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F318" s="10"/>
       <c r="G318" s="15"/>
       <c r="H318" s="14"/>
     </row>
-    <row r="319" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F319" s="10"/>
       <c r="G319" s="15"/>
       <c r="H319" s="14"/>
     </row>
-    <row r="320" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F320" s="10"/>
       <c r="G320" s="15"/>
       <c r="H320" s="14"/>
     </row>
-    <row r="321" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F321" s="10"/>
       <c r="G321" s="15"/>
       <c r="H321" s="14"/>
     </row>
-    <row r="322" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F322" s="10"/>
       <c r="G322" s="15"/>
       <c r="H322" s="14"/>
     </row>
-    <row r="323" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F323" s="10"/>
       <c r="G323" s="15"/>
       <c r="H323" s="14"/>
     </row>
-    <row r="324" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F324" s="10"/>
       <c r="G324" s="15"/>
       <c r="H324" s="14"/>
     </row>
-    <row r="325" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F325" s="10"/>
       <c r="G325" s="15"/>
       <c r="H325" s="14"/>
     </row>
-    <row r="326" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F326" s="10"/>
       <c r="G326" s="15"/>
       <c r="H326" s="14"/>
     </row>
-    <row r="327" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F327" s="10"/>
       <c r="G327" s="15"/>
       <c r="H327" s="14"/>
     </row>
-    <row r="328" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F328" s="10"/>
       <c r="G328" s="15"/>
       <c r="H328" s="14"/>
     </row>
-    <row r="329" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F329" s="10"/>
       <c r="G329" s="15"/>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F330" s="10"/>
       <c r="G330" s="15"/>
       <c r="H330" s="14"/>
     </row>
-    <row r="331" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F331" s="10"/>
       <c r="G331" s="15"/>
       <c r="H331" s="14"/>
     </row>
-    <row r="332" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F332" s="10"/>
       <c r="G332" s="15"/>
       <c r="H332" s="14"/>
     </row>
-    <row r="333" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F333" s="10"/>
       <c r="G333" s="15"/>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F334" s="10"/>
       <c r="G334" s="15"/>
       <c r="H334" s="14"/>
     </row>
-    <row r="335" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F335" s="10"/>
       <c r="G335" s="15"/>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F336" s="10"/>
       <c r="G336" s="15"/>
       <c r="H336" s="14"/>
     </row>
-    <row r="337" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F337" s="10"/>
       <c r="G337" s="15"/>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F338" s="10"/>
       <c r="G338" s="15"/>
       <c r="H338" s="14"/>
     </row>
-    <row r="339" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F339" s="10"/>
       <c r="G339" s="15"/>
       <c r="H339" s="14"/>
     </row>
-    <row r="340" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F340" s="10"/>
       <c r="G340" s="15"/>
       <c r="H340" s="14"/>
     </row>
-    <row r="341" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F341" s="10"/>
       <c r="G341" s="15"/>
       <c r="H341" s="14"/>
     </row>
-    <row r="342" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F342" s="10"/>
       <c r="G342" s="15"/>
       <c r="H342" s="14"/>
     </row>
-    <row r="343" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F343" s="10"/>
       <c r="G343" s="15"/>
       <c r="H343" s="14"/>
     </row>
-    <row r="344" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F344" s="10"/>
       <c r="G344" s="15"/>
       <c r="H344" s="14"/>
     </row>
-    <row r="345" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F345" s="10"/>
       <c r="G345" s="15"/>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F346" s="10"/>
       <c r="G346" s="15"/>
       <c r="H346" s="14"/>
     </row>
-    <row r="347" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F347" s="10"/>
       <c r="G347" s="15"/>
       <c r="H347" s="14"/>
     </row>
-    <row r="348" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F348" s="10"/>
       <c r="G348" s="15"/>
       <c r="H348" s="14"/>
     </row>
-    <row r="349" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F349" s="10"/>
       <c r="G349" s="15"/>
       <c r="H349" s="14"/>
     </row>
-    <row r="350" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F350" s="10"/>
       <c r="G350" s="15"/>
       <c r="H350" s="14"/>
     </row>
-    <row r="351" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F351" s="10"/>
       <c r="G351" s="15"/>
       <c r="H351" s="14"/>
     </row>
-    <row r="352" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F352" s="10"/>
       <c r="G352" s="15"/>
       <c r="H352" s="14"/>
     </row>
-    <row r="353" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F353" s="10"/>
       <c r="G353" s="15"/>
       <c r="H353" s="14"/>
     </row>
-    <row r="354" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F354" s="10"/>
       <c r="G354" s="15"/>
       <c r="H354" s="14"/>
     </row>
-    <row r="355" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F355" s="10"/>
       <c r="G355" s="15"/>
       <c r="H355" s="14"/>
     </row>
-    <row r="356" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F356" s="10"/>
       <c r="G356" s="15"/>
       <c r="H356" s="14"/>
     </row>
-    <row r="357" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F357" s="10"/>
       <c r="G357" s="15"/>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F358" s="10"/>
       <c r="G358" s="15"/>
       <c r="H358" s="14"/>
     </row>
-    <row r="359" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F359" s="10"/>
       <c r="G359" s="15"/>
       <c r="H359" s="14"/>
     </row>
-    <row r="360" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F360" s="10"/>
       <c r="G360" s="15"/>
       <c r="H360" s="14"/>
     </row>
-    <row r="361" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F361" s="10"/>
       <c r="G361" s="15"/>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F362" s="10"/>
       <c r="G362" s="15"/>
       <c r="H362" s="14"/>
     </row>
-    <row r="363" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F363" s="10"/>
       <c r="G363" s="15"/>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F364" s="10"/>
       <c r="G364" s="15"/>
       <c r="H364" s="14"/>
     </row>
-    <row r="365" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F365" s="10"/>
       <c r="G365" s="15"/>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F366" s="10"/>
       <c r="G366" s="15"/>
       <c r="H366" s="14"/>
     </row>
-    <row r="367" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F367" s="10"/>
       <c r="G367" s="15"/>
       <c r="H367" s="14"/>
     </row>
-    <row r="368" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F368" s="10"/>
       <c r="G368" s="15"/>
       <c r="H368" s="14"/>
     </row>
-    <row r="369" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F369" s="10"/>
       <c r="G369" s="15"/>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F370" s="10"/>
       <c r="G370" s="15"/>
       <c r="H370" s="14"/>
     </row>
-    <row r="371" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F371" s="10"/>
       <c r="G371" s="15"/>
       <c r="H371" s="14"/>
     </row>
-    <row r="372" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F372" s="10"/>
       <c r="G372" s="15"/>
       <c r="H372" s="14"/>
     </row>
-    <row r="373" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F373" s="10"/>
       <c r="G373" s="15"/>
       <c r="H373" s="14"/>
     </row>
-    <row r="374" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F374" s="10"/>
       <c r="G374" s="15"/>
       <c r="H374" s="14"/>
     </row>
-    <row r="375" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F375" s="10"/>
       <c r="G375" s="15"/>
       <c r="H375" s="14"/>
     </row>
-    <row r="376" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F376" s="10"/>
       <c r="G376" s="15"/>
       <c r="H376" s="14"/>
     </row>
-    <row r="377" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F377" s="10"/>
       <c r="G377" s="15"/>
       <c r="H377" s="14"/>
     </row>
-    <row r="378" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F378" s="10"/>
       <c r="G378" s="15"/>
       <c r="H378" s="14"/>
     </row>
-    <row r="379" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F379" s="10"/>
       <c r="G379" s="15"/>
       <c r="H379" s="14"/>
     </row>
-    <row r="380" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F380" s="10"/>
       <c r="G380" s="15"/>
       <c r="H380" s="14"/>
     </row>
-    <row r="381" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F381" s="10"/>
       <c r="G381" s="15"/>
       <c r="H381" s="14"/>
     </row>
-    <row r="382" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F382" s="10"/>
       <c r="G382" s="15"/>
       <c r="H382" s="14"/>
     </row>
-    <row r="383" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F383" s="10"/>
       <c r="G383" s="15"/>
       <c r="H383" s="14"/>
     </row>
-    <row r="384" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F384" s="10"/>
       <c r="G384" s="15"/>
       <c r="H384" s="14"/>
     </row>
-    <row r="385" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F385" s="10"/>
       <c r="G385" s="15"/>
       <c r="H385" s="14"/>
     </row>
-    <row r="386" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F386" s="10"/>
       <c r="G386" s="15"/>
       <c r="H386" s="14"/>
     </row>
-    <row r="387" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F387" s="10"/>
       <c r="G387" s="15"/>
       <c r="H387" s="14"/>
     </row>
-    <row r="388" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F388" s="10"/>
       <c r="G388" s="15"/>
       <c r="H388" s="14"/>
     </row>
-    <row r="389" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F389" s="10"/>
       <c r="G389" s="15"/>
       <c r="H389" s="14"/>
     </row>
-    <row r="390" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F390" s="10"/>
       <c r="G390" s="15"/>
       <c r="H390" s="14"/>
     </row>
-    <row r="391" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F391" s="10"/>
       <c r="G391" s="15"/>
       <c r="H391" s="14"/>
     </row>
-    <row r="392" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F392" s="10"/>
       <c r="G392" s="15"/>
       <c r="H392" s="14"/>
     </row>
-    <row r="393" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F393" s="10"/>
       <c r="G393" s="15"/>
       <c r="H393" s="14"/>
     </row>
-    <row r="394" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F394" s="10"/>
       <c r="G394" s="15"/>
       <c r="H394" s="14"/>
     </row>
-    <row r="395" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F395" s="10"/>
       <c r="G395" s="15"/>
       <c r="H395" s="14"/>
     </row>
-    <row r="396" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F396" s="10"/>
       <c r="G396" s="15"/>
       <c r="H396" s="14"/>
     </row>
-    <row r="397" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F397" s="10"/>
       <c r="G397" s="15"/>
       <c r="H397" s="14"/>
     </row>
-    <row r="398" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F398" s="10"/>
       <c r="G398" s="15"/>
       <c r="H398" s="14"/>
     </row>
-    <row r="399" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F399" s="10"/>
       <c r="G399" s="15"/>
       <c r="H399" s="14"/>
     </row>
-    <row r="400" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F400" s="10"/>
       <c r="G400" s="15"/>
       <c r="H400" s="14"/>
     </row>
-    <row r="401" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F401" s="10"/>
       <c r="G401" s="15"/>
       <c r="H401" s="14"/>
     </row>
-    <row r="402" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F402" s="10"/>
       <c r="G402" s="15"/>
       <c r="H402" s="14"/>
     </row>
-    <row r="403" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F403" s="10"/>
       <c r="G403" s="15"/>
       <c r="H403" s="14"/>
     </row>
-    <row r="404" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F404" s="10"/>
       <c r="G404" s="15"/>
       <c r="H404" s="14"/>
     </row>
-    <row r="405" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F405" s="10"/>
       <c r="G405" s="15"/>
       <c r="H405" s="14"/>
     </row>
-    <row r="406" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F406" s="10"/>
       <c r="G406" s="15"/>
       <c r="H406" s="14"/>
     </row>
-    <row r="407" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F407" s="10"/>
       <c r="G407" s="15"/>
       <c r="H407" s="14"/>
     </row>
-    <row r="408" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F408" s="10"/>
       <c r="G408" s="15"/>
       <c r="H408" s="14"/>
     </row>
-    <row r="409" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F409" s="10"/>
       <c r="G409" s="15"/>
       <c r="H409" s="14"/>
     </row>
-    <row r="410" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F410" s="10"/>
       <c r="G410" s="15"/>
       <c r="H410" s="14"/>
     </row>
-    <row r="411" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F411" s="10"/>
       <c r="G411" s="15"/>
       <c r="H411" s="14"/>
     </row>
-    <row r="412" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F412" s="10"/>
       <c r="G412" s="15"/>
       <c r="H412" s="14"/>
     </row>
-    <row r="413" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F413" s="10"/>
       <c r="G413" s="15"/>
       <c r="H413" s="14"/>
     </row>
-    <row r="414" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F414" s="10"/>
       <c r="G414" s="15"/>
       <c r="H414" s="14"/>
     </row>
-    <row r="415" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F415" s="10"/>
       <c r="G415" s="15"/>
       <c r="H415" s="14"/>
     </row>
-    <row r="416" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F416" s="10"/>
       <c r="G416" s="15"/>
       <c r="H416" s="14"/>
     </row>
-    <row r="417" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F417" s="10"/>
       <c r="G417" s="15"/>
       <c r="H417" s="14"/>
     </row>
-    <row r="418" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F418" s="10"/>
       <c r="G418" s="15"/>
       <c r="H418" s="14"/>
     </row>
-    <row r="419" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F419" s="10"/>
       <c r="G419" s="15"/>
       <c r="H419" s="14"/>
     </row>
-    <row r="420" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F420" s="10"/>
       <c r="G420" s="15"/>
       <c r="H420" s="14"/>
     </row>
-    <row r="421" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F421" s="10"/>
       <c r="G421" s="15"/>
       <c r="H421" s="14"/>
     </row>
-    <row r="422" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F422" s="10"/>
       <c r="G422" s="15"/>
       <c r="H422" s="14"/>
     </row>
-    <row r="423" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F423" s="10"/>
       <c r="G423" s="15"/>
       <c r="H423" s="14"/>
     </row>
-    <row r="424" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F424" s="10"/>
       <c r="G424" s="15"/>
       <c r="H424" s="14"/>
     </row>
-    <row r="425" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F425" s="10"/>
       <c r="G425" s="15"/>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F426" s="10"/>
       <c r="G426" s="15"/>
       <c r="H426" s="14"/>
     </row>
-    <row r="427" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F427" s="10"/>
       <c r="G427" s="15"/>
       <c r="H427" s="14"/>
     </row>
-    <row r="428" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F428" s="10"/>
       <c r="G428" s="15"/>
       <c r="H428" s="14"/>
     </row>
-    <row r="429" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F429" s="10"/>
       <c r="G429" s="15"/>
       <c r="H429" s="14"/>
     </row>
-    <row r="430" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F430" s="10"/>
       <c r="G430" s="15"/>
       <c r="H430" s="14"/>
     </row>
-    <row r="431" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F431" s="10"/>
       <c r="G431" s="15"/>
       <c r="H431" s="14"/>
     </row>
-    <row r="432" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F432" s="10"/>
       <c r="G432" s="15"/>
       <c r="H432" s="14"/>
     </row>
-    <row r="433" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F433" s="10"/>
       <c r="G433" s="15"/>
       <c r="H433" s="14"/>
     </row>
-    <row r="434" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F434" s="10"/>
       <c r="G434" s="15"/>
       <c r="H434" s="14"/>
     </row>
-    <row r="435" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F435" s="10"/>
       <c r="G435" s="15"/>
       <c r="H435" s="14"/>
     </row>
-    <row r="436" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F436" s="10"/>
       <c r="G436" s="15"/>
       <c r="H436" s="14"/>
     </row>
-    <row r="437" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F437" s="10"/>
       <c r="G437" s="15"/>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F438" s="10"/>
       <c r="G438" s="15"/>
       <c r="H438" s="14"/>
     </row>
-    <row r="439" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F439" s="10"/>
       <c r="G439" s="15"/>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F440" s="10"/>
       <c r="G440" s="15"/>
       <c r="H440" s="14"/>
     </row>
-    <row r="441" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F441" s="10"/>
       <c r="G441" s="15"/>
       <c r="H441" s="14"/>
     </row>
-    <row r="442" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F442" s="10"/>
       <c r="G442" s="15"/>
       <c r="H442" s="14"/>
     </row>
-    <row r="443" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F443" s="10"/>
       <c r="G443" s="15"/>
       <c r="H443" s="14"/>
     </row>
-    <row r="444" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F444" s="10"/>
       <c r="G444" s="15"/>
       <c r="H444" s="14"/>
     </row>
-    <row r="445" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F445" s="10"/>
       <c r="G445" s="15"/>
       <c r="H445" s="14"/>
     </row>
-    <row r="446" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F446" s="10"/>
       <c r="G446" s="15"/>
       <c r="H446" s="14"/>
     </row>
-    <row r="447" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F447" s="10"/>
       <c r="G447" s="15"/>
       <c r="H447" s="14"/>
     </row>
-    <row r="448" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F448" s="10"/>
       <c r="G448" s="15"/>
       <c r="H448" s="14"/>
     </row>
-    <row r="449" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F449" s="10"/>
       <c r="G449" s="15"/>
       <c r="H449" s="14"/>
     </row>
-    <row r="450" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F450" s="10"/>
       <c r="G450" s="15"/>
       <c r="H450" s="14"/>
     </row>
-    <row r="451" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F451" s="10"/>
       <c r="G451" s="15"/>
       <c r="H451" s="14"/>
     </row>
-    <row r="452" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F452" s="10"/>
       <c r="G452" s="15"/>
       <c r="H452" s="14"/>
     </row>
-    <row r="453" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F453" s="10"/>
       <c r="G453" s="15"/>
       <c r="H453" s="14"/>
     </row>
-    <row r="454" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F454" s="10"/>
       <c r="G454" s="15"/>
       <c r="H454" s="14"/>
     </row>
-    <row r="455" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F455" s="10"/>
       <c r="G455" s="15"/>
       <c r="H455" s="14"/>
     </row>
-    <row r="456" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F456" s="10"/>
       <c r="G456" s="15"/>
       <c r="H456" s="14"/>
     </row>
-    <row r="457" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F457" s="10"/>
       <c r="G457" s="15"/>
       <c r="H457" s="14"/>
     </row>
-    <row r="458" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F458" s="10"/>
       <c r="G458" s="15"/>
       <c r="H458" s="14"/>
     </row>
-    <row r="459" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F459" s="10"/>
       <c r="G459" s="15"/>
       <c r="H459" s="14"/>
     </row>
-    <row r="460" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F460" s="10"/>
       <c r="G460" s="15"/>
       <c r="H460" s="14"/>
     </row>
-    <row r="461" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F461" s="10"/>
       <c r="G461" s="15"/>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F462" s="10"/>
       <c r="G462" s="15"/>
       <c r="H462" s="14"/>
     </row>
-    <row r="463" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F463" s="10"/>
       <c r="G463" s="15"/>
       <c r="H463" s="14"/>
     </row>
-    <row r="464" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F464" s="10"/>
       <c r="G464" s="15"/>
       <c r="H464" s="14"/>
     </row>
-    <row r="465" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F465" s="10"/>
       <c r="G465" s="15"/>
       <c r="H465" s="14"/>
     </row>
-    <row r="466" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F466" s="10"/>
       <c r="G466" s="15"/>
       <c r="H466" s="14"/>
     </row>
-    <row r="467" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F467" s="10"/>
       <c r="G467" s="15"/>
       <c r="H467" s="14"/>
     </row>
-    <row r="468" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F468" s="10"/>
       <c r="G468" s="15"/>
       <c r="H468" s="14"/>
     </row>
-    <row r="469" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F469" s="10"/>
       <c r="G469" s="15"/>
       <c r="H469" s="14"/>
     </row>
-    <row r="470" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F470" s="10"/>
       <c r="G470" s="15"/>
       <c r="H470" s="14"/>
     </row>
-    <row r="471" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F471" s="10"/>
       <c r="G471" s="15"/>
       <c r="H471" s="14"/>
     </row>
-    <row r="472" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F472" s="10"/>
       <c r="G472" s="15"/>
       <c r="H472" s="14"/>
     </row>
-    <row r="473" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F473" s="10"/>
       <c r="G473" s="15"/>
       <c r="H473" s="14"/>
     </row>
-    <row r="474" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F474" s="10"/>
       <c r="G474" s="15"/>
       <c r="H474" s="14"/>
     </row>
-    <row r="475" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F475" s="10"/>
       <c r="G475" s="15"/>
       <c r="H475" s="14"/>
     </row>
-    <row r="476" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F476" s="10"/>
       <c r="G476" s="15"/>
       <c r="H476" s="14"/>
     </row>
-    <row r="477" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F477" s="10"/>
       <c r="G477" s="15"/>
       <c r="H477" s="14"/>
     </row>
-    <row r="478" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F478" s="10"/>
       <c r="G478" s="15"/>
       <c r="H478" s="14"/>
     </row>
-    <row r="479" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F479" s="10"/>
       <c r="G479" s="15"/>
       <c r="H479" s="14"/>
     </row>
-    <row r="480" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F480" s="10"/>
       <c r="G480" s="15"/>
       <c r="H480" s="14"/>
     </row>
-    <row r="481" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F481" s="10"/>
       <c r="G481" s="15"/>
       <c r="H481" s="14"/>
     </row>
-    <row r="482" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F482" s="10"/>
       <c r="G482" s="15"/>
       <c r="H482" s="14"/>
     </row>
-    <row r="483" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F483" s="10"/>
       <c r="G483" s="15"/>
       <c r="H483" s="14"/>
     </row>
-    <row r="484" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F484" s="10"/>
       <c r="G484" s="15"/>
       <c r="H484" s="14"/>
     </row>
-    <row r="485" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F485" s="10"/>
       <c r="G485" s="15"/>
       <c r="H485" s="14"/>
     </row>
-    <row r="486" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F486" s="10"/>
       <c r="G486" s="15"/>
       <c r="H486" s="14"/>
     </row>
-    <row r="487" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F487" s="10"/>
       <c r="G487" s="15"/>
       <c r="H487" s="14"/>
     </row>
-    <row r="488" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F488" s="10"/>
       <c r="G488" s="15"/>
       <c r="H488" s="14"/>
     </row>
-    <row r="489" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F489" s="10"/>
       <c r="G489" s="15"/>
       <c r="H489" s="14"/>
     </row>
-    <row r="490" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F490" s="10"/>
       <c r="G490" s="15"/>
       <c r="H490" s="14"/>
     </row>
-    <row r="491" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F491" s="10"/>
       <c r="G491" s="15"/>
       <c r="H491" s="14"/>
     </row>
-    <row r="492" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F492" s="10"/>
       <c r="G492" s="15"/>
       <c r="H492" s="14"/>
     </row>
-    <row r="493" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F493" s="10"/>
       <c r="G493" s="15"/>
       <c r="H493" s="14"/>
     </row>
-    <row r="494" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F494" s="10"/>
       <c r="G494" s="15"/>
       <c r="H494" s="14"/>
     </row>
-    <row r="495" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F495" s="10"/>
       <c r="G495" s="15"/>
       <c r="H495" s="14"/>
     </row>
-    <row r="496" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F496" s="10"/>
       <c r="G496" s="15"/>
       <c r="H496" s="14"/>
     </row>
-    <row r="497" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F497" s="10"/>
       <c r="G497" s="15"/>
       <c r="H497" s="14"/>
     </row>
-    <row r="498" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F498" s="10"/>
       <c r="G498" s="15"/>
       <c r="H498" s="14"/>
     </row>
-    <row r="499" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F499" s="10"/>
       <c r="G499" s="15"/>
       <c r="H499" s="14"/>
     </row>
-    <row r="500" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F500" s="10"/>
       <c r="G500" s="15"/>
       <c r="H500" s="14"/>
     </row>
-    <row r="501" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F501" s="10"/>
       <c r="G501" s="15"/>
       <c r="H501" s="14"/>
     </row>
-    <row r="502" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F502" s="10"/>
       <c r="G502" s="15"/>
       <c r="H502" s="14"/>
     </row>
-    <row r="503" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F503" s="10"/>
       <c r="G503" s="15"/>
       <c r="H503" s="14"/>
     </row>
-    <row r="504" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F504" s="10"/>
       <c r="G504" s="15"/>
       <c r="H504" s="14"/>
     </row>
-    <row r="505" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F505" s="10"/>
       <c r="G505" s="15"/>
       <c r="H505" s="14"/>
     </row>
-    <row r="506" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F506" s="10"/>
       <c r="G506" s="15"/>
       <c r="H506" s="14"/>
     </row>
-    <row r="507" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F507" s="10"/>
       <c r="G507" s="15"/>
       <c r="H507" s="14"/>
     </row>
-    <row r="508" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F508" s="10"/>
       <c r="G508" s="15"/>
       <c r="H508" s="14"/>
     </row>
-    <row r="509" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F509" s="10"/>
       <c r="G509" s="15"/>
       <c r="H509" s="14"/>
     </row>
-    <row r="510" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F510" s="10"/>
       <c r="G510" s="15"/>
       <c r="H510" s="14"/>
     </row>
-    <row r="511" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F511" s="10"/>
       <c r="G511" s="15"/>
       <c r="H511" s="14"/>
     </row>
-    <row r="512" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F512" s="10"/>
       <c r="G512" s="15"/>
       <c r="H512" s="14"/>
     </row>
-    <row r="513" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F513" s="10"/>
       <c r="G513" s="15"/>
       <c r="H513" s="14"/>
     </row>
-    <row r="514" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F514" s="10"/>
       <c r="G514" s="15"/>
       <c r="H514" s="14"/>
     </row>
-    <row r="515" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F515" s="10"/>
       <c r="G515" s="15"/>
       <c r="H515" s="14"/>
     </row>
-    <row r="516" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F516" s="10"/>
       <c r="G516" s="15"/>
       <c r="H516" s="14"/>
     </row>
-    <row r="517" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F517" s="10"/>
       <c r="G517" s="15"/>
       <c r="H517" s="14"/>
     </row>
-    <row r="518" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F518" s="10"/>
       <c r="G518" s="15"/>
       <c r="H518" s="14"/>
     </row>
-    <row r="519" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F519" s="10"/>
       <c r="G519" s="15"/>
       <c r="H519" s="14"/>
     </row>
-    <row r="520" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F520" s="10"/>
       <c r="G520" s="15"/>
       <c r="H520" s="14"/>
     </row>
-    <row r="521" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F521" s="10"/>
       <c r="G521" s="15"/>
       <c r="H521" s="14"/>
     </row>
-    <row r="522" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F522" s="10"/>
       <c r="G522" s="15"/>
       <c r="H522" s="14"/>
     </row>
-    <row r="523" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F523" s="10"/>
       <c r="G523" s="15"/>
       <c r="H523" s="14"/>
     </row>
-    <row r="524" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F524" s="10"/>
       <c r="G524" s="15"/>
       <c r="H524" s="14"/>
     </row>
-    <row r="525" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F525" s="10"/>
       <c r="G525" s="15"/>
       <c r="H525" s="14"/>
     </row>
-    <row r="526" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F526" s="10"/>
       <c r="G526" s="15"/>
       <c r="H526" s="14"/>
     </row>
-    <row r="527" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F527" s="10"/>
       <c r="G527" s="15"/>
       <c r="H527" s="14"/>
     </row>
-    <row r="528" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F528" s="10"/>
       <c r="G528" s="15"/>
       <c r="H528" s="14"/>
     </row>
-    <row r="529" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F529" s="10"/>
       <c r="G529" s="15"/>
       <c r="H529" s="14"/>
     </row>
-    <row r="530" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F530" s="10"/>
       <c r="G530" s="15"/>
       <c r="H530" s="14"/>
     </row>
-    <row r="531" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F531" s="10"/>
       <c r="G531" s="15"/>
       <c r="H531" s="14"/>
     </row>
-    <row r="532" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F532" s="10"/>
       <c r="G532" s="15"/>
       <c r="H532" s="14"/>
     </row>
-    <row r="533" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F533" s="10"/>
       <c r="G533" s="15"/>
       <c r="H533" s="14"/>
     </row>
-    <row r="534" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F534" s="10"/>
       <c r="G534" s="15"/>
       <c r="H534" s="14"/>
     </row>
-    <row r="535" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F535" s="10"/>
       <c r="G535" s="15"/>
       <c r="H535" s="14"/>
     </row>
-    <row r="536" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F536" s="10"/>
       <c r="G536" s="15"/>
       <c r="H536" s="14"/>
     </row>
-    <row r="537" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F537" s="10"/>
       <c r="G537" s="15"/>
       <c r="H537" s="14"/>
     </row>
-    <row r="538" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F538" s="10"/>
       <c r="G538" s="15"/>
       <c r="H538" s="14"/>
     </row>
-    <row r="539" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F539" s="10"/>
       <c r="G539" s="15"/>
       <c r="H539" s="14"/>
     </row>
-    <row r="540" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F540" s="10"/>
       <c r="G540" s="15"/>
       <c r="H540" s="14"/>
     </row>
-    <row r="541" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F541" s="10"/>
       <c r="G541" s="15"/>
       <c r="H541" s="14"/>
     </row>
-    <row r="542" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F542" s="10"/>
       <c r="G542" s="15"/>
       <c r="H542" s="14"/>
     </row>
-    <row r="543" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F543" s="10"/>
       <c r="G543" s="15"/>
       <c r="H543" s="14"/>
     </row>
-    <row r="544" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F544" s="10"/>
       <c r="G544" s="15"/>
       <c r="H544" s="14"/>
     </row>
-    <row r="545" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F545" s="10"/>
       <c r="G545" s="15"/>
       <c r="H545" s="14"/>
     </row>
-    <row r="546" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F546" s="10"/>
       <c r="G546" s="15"/>
       <c r="H546" s="14"/>
     </row>
-    <row r="547" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F547" s="10"/>
       <c r="G547" s="15"/>
       <c r="H547" s="14"/>
     </row>
-    <row r="548" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F548" s="10"/>
       <c r="G548" s="15"/>
       <c r="H548" s="14"/>
     </row>
-    <row r="549" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F549" s="10"/>
       <c r="G549" s="15"/>
       <c r="H549" s="14"/>
     </row>
-    <row r="550" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F550" s="10"/>
       <c r="G550" s="15"/>
       <c r="H550" s="14"/>
     </row>
-    <row r="551" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F551" s="10"/>
       <c r="G551" s="15"/>
       <c r="H551" s="14"/>
     </row>
-    <row r="552" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F552" s="10"/>
       <c r="G552" s="15"/>
       <c r="H552" s="14"/>
     </row>
-    <row r="553" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F553" s="10"/>
       <c r="G553" s="15"/>
       <c r="H553" s="14"/>
     </row>
-    <row r="554" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F554" s="10"/>
       <c r="G554" s="15"/>
       <c r="H554" s="14"/>
     </row>
-    <row r="555" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F555" s="10"/>
       <c r="G555" s="15"/>
       <c r="H555" s="14"/>
     </row>
-    <row r="556" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F556" s="10"/>
       <c r="G556" s="15"/>
       <c r="H556" s="14"/>
     </row>
-    <row r="557" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F557" s="10"/>
       <c r="G557" s="15"/>
       <c r="H557" s="14"/>
     </row>
-    <row r="558" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F558" s="10"/>
       <c r="G558" s="15"/>
       <c r="H558" s="14"/>
     </row>
-    <row r="559" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F559" s="10"/>
       <c r="G559" s="15"/>
       <c r="H559" s="14"/>
     </row>
-    <row r="560" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F560" s="10"/>
       <c r="G560" s="15"/>
       <c r="H560" s="14"/>
     </row>
-    <row r="561" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F561" s="10"/>
       <c r="G561" s="15"/>
       <c r="H561" s="14"/>
     </row>
-    <row r="562" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F562" s="10"/>
       <c r="G562" s="15"/>
       <c r="H562" s="14"/>
     </row>
-    <row r="563" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F563" s="10"/>
       <c r="G563" s="15"/>
       <c r="H563" s="14"/>
     </row>
-    <row r="564" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F564" s="10"/>
       <c r="G564" s="15"/>
       <c r="H564" s="14"/>
     </row>
-    <row r="565" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F565" s="10"/>
       <c r="G565" s="15"/>
       <c r="H565" s="14"/>
     </row>
-    <row r="566" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F566" s="10"/>
       <c r="G566" s="15"/>
       <c r="H566" s="14"/>
     </row>
-    <row r="567" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F567" s="10"/>
       <c r="G567" s="15"/>
       <c r="H567" s="14"/>
     </row>
-    <row r="568" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F568" s="10"/>
       <c r="G568" s="15"/>
       <c r="H568" s="14"/>
     </row>
-    <row r="569" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F569" s="10"/>
       <c r="G569" s="15"/>
       <c r="H569" s="14"/>
     </row>
-    <row r="570" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F570" s="10"/>
       <c r="G570" s="15"/>
       <c r="H570" s="14"/>
     </row>
-    <row r="571" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F571" s="10"/>
       <c r="G571" s="15"/>
       <c r="H571" s="14"/>
     </row>
-    <row r="572" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F572" s="10"/>
       <c r="G572" s="15"/>
       <c r="H572" s="14"/>
     </row>
-    <row r="573" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F573" s="10"/>
       <c r="G573" s="15"/>
       <c r="H573" s="14"/>
     </row>
-    <row r="574" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F574" s="10"/>
       <c r="G574" s="15"/>
       <c r="H574" s="14"/>
     </row>
-    <row r="575" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F575" s="10"/>
       <c r="G575" s="15"/>
       <c r="H575" s="14"/>
     </row>
-    <row r="576" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F576" s="10"/>
       <c r="G576" s="15"/>
       <c r="H576" s="14"/>
     </row>
-    <row r="577" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F577" s="10"/>
       <c r="G577" s="15"/>
       <c r="H577" s="14"/>
     </row>
-    <row r="578" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F578" s="10"/>
       <c r="G578" s="15"/>
       <c r="H578" s="14"/>
     </row>
-    <row r="579" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F579" s="10"/>
       <c r="G579" s="15"/>
       <c r="H579" s="14"/>
     </row>
-    <row r="580" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F580" s="10"/>
       <c r="G580" s="15"/>
       <c r="H580" s="14"/>
     </row>
-    <row r="581" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F581" s="10"/>
       <c r="G581" s="15"/>
       <c r="H581" s="14"/>
     </row>
-    <row r="582" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F582" s="10"/>
       <c r="G582" s="15"/>
       <c r="H582" s="14"/>
     </row>
-    <row r="583" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F583" s="10"/>
       <c r="G583" s="15"/>
       <c r="H583" s="14"/>
     </row>
-    <row r="584" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="6:8" x14ac:dyDescent="0.45">
       <c r="G584" s="15"/>
     </row>
   </sheetData>
@@ -4255,18 +4259,16 @@
   </sheetPr>
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="14" width="12.7109375" style="3" customWidth="1"/>
-    <col min="15" max="16" width="11.7109375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="14" width="12.73046875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="11.73046875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -4310,7 +4312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>11</v>
       </c>
@@ -4323,7 +4325,7 @@
       <c r="D2" s="8">
         <v>0.43999999999999995</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <v>0.25</v>
       </c>
       <c r="F2" s="20">
@@ -4359,7 +4361,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>12</v>
       </c>
@@ -4372,7 +4374,7 @@
       <c r="D3" s="8">
         <v>8.1428571428571406E-2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <v>0.25</v>
       </c>
       <c r="F3" s="5">
@@ -4408,7 +4410,7 @@
       <c r="S3"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>22</v>
       </c>
@@ -4421,7 +4423,7 @@
       <c r="D4" s="8">
         <v>6.357142857142857E-2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <v>0.25</v>
       </c>
       <c r="F4" s="5">
@@ -4457,7 +4459,7 @@
       <c r="S4"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>111</v>
       </c>
@@ -4470,7 +4472,7 @@
       <c r="D5" s="8">
         <v>2.928571428571428E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="5">
@@ -4506,7 +4508,7 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -4519,7 +4521,7 @@
       <c r="D6" s="8">
         <v>0.10142857142857141</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
       <c r="F6" s="5">
@@ -4555,7 +4557,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -4568,7 +4570,7 @@
       <c r="D7" s="8">
         <v>2.3571428571428573E-2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <v>0.25</v>
       </c>
       <c r="F7" s="5">
@@ -4604,7 +4606,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4617,7 +4619,7 @@
       <c r="D8" s="8">
         <v>1.714285714285714E-2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <v>0.25</v>
       </c>
       <c r="F8" s="5">
@@ -4653,7 +4655,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -4666,7 +4668,7 @@
       <c r="D9" s="8">
         <v>7.1428571428571426E-3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <v>0.25</v>
       </c>
       <c r="F9" s="5">
@@ -4702,7 +4704,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -4715,7 +4717,7 @@
       <c r="D10" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <v>0.25</v>
       </c>
       <c r="F10" s="5">
@@ -4751,7 +4753,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -4764,7 +4766,7 @@
       <c r="D11" s="8">
         <v>0.12285714285714285</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="5">
@@ -4800,7 +4802,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -4813,7 +4815,7 @@
       <c r="D12" s="8">
         <v>0.10214285714285713</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="12">
         <v>0.25</v>
       </c>
       <c r="F12" s="5">
@@ -4849,7 +4851,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -4862,7 +4864,7 @@
       <c r="D13" s="8">
         <v>6.4285714285714276E-3</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="12">
         <v>0.25</v>
       </c>
       <c r="F13" s="5">
@@ -4898,7 +4900,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4919,7 +4921,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D15" s="8"/>
       <c r="E15" s="7"/>
       <c r="F15"/>
@@ -4932,7 +4934,7 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C16"/>
       <c r="D16" s="8"/>
       <c r="E16" s="7"/>
@@ -4947,7 +4949,7 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C17"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
@@ -4962,7 +4964,7 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C18"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7"/>
@@ -4977,7 +4979,7 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C19"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7"/>
@@ -4992,7 +4994,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C20"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7"/>
@@ -5004,7 +5006,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C21"/>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -5016,7 +5018,7 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C22"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
@@ -5028,7 +5030,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C23"/>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
@@ -5040,7 +5042,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C24"/>
       <c r="D24" s="8"/>
       <c r="E24" s="7"/>
@@ -5052,7 +5054,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C25"/>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
@@ -5064,7 +5066,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C26"/>
       <c r="D26" s="8"/>
       <c r="E26" s="7"/>
@@ -5076,7 +5078,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C27"/>
       <c r="D27" s="8"/>
       <c r="E27" s="7"/>
@@ -5088,7 +5090,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -5100,7 +5102,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -5112,7 +5114,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -5123,7 +5125,7 @@
       <c r="J30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -5134,7 +5136,7 @@
       <c r="J31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -5147,7 +5149,7 @@
       <c r="J32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -5159,7 +5161,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -5171,7 +5173,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -5183,7 +5185,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -5195,7 +5197,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -5207,7 +5209,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -5217,7 +5219,7 @@
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -5227,7 +5229,7 @@
       <c r="G39"/>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -5237,7 +5239,7 @@
       <c r="G40"/>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -5247,7 +5249,7 @@
       <c r="G41"/>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -5257,7 +5259,7 @@
       <c r="G42"/>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -5267,7 +5269,7 @@
       <c r="G43"/>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -5277,7 +5279,7 @@
       <c r="G44"/>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -5287,7 +5289,7 @@
       <c r="G45"/>
       <c r="H45"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -5297,7 +5299,7 @@
       <c r="G46"/>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -5307,7 +5309,7 @@
       <c r="G47"/>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -5317,7 +5319,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -5327,7 +5329,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -5337,7 +5339,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -5347,69 +5349,69 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="63" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5422,17 +5424,15 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="8.28515625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="8" width="8.265625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5502,7 +5502,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5524,7 +5524,7 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -5636,7 +5636,7 @@
       <c r="L8"/>
       <c r="M8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="L9"/>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -5692,7 +5692,7 @@
       <c r="L10"/>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -5718,7 +5718,7 @@
       <c r="L11"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -5782,16 +5782,14 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I13"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -5823,7 +5821,7 @@
       <c r="M1"/>
       <c r="N1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5841,7 +5839,7 @@
       <c r="M2"/>
       <c r="N2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5863,7 +5861,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.5</v>
       </c>
@@ -5885,7 +5883,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5905,7 +5903,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -5927,7 +5925,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -5953,7 +5951,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -5983,7 +5981,7 @@
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -6009,7 +6007,7 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -6039,7 +6037,7 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -6065,7 +6063,7 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -6097,7 +6095,7 @@
       <c r="M12"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -6138,19 +6136,17 @@
   </sheetPr>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="12" width="12.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="13.42578125" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="12" width="12.86328125" style="3" customWidth="1"/>
+    <col min="13" max="16" width="9.1328125" style="3"/>
+    <col min="17" max="17" width="13.3984375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -6193,7 +6189,7 @@
       <c r="R1"/>
       <c r="S1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="12">
         <v>3.6</v>
       </c>
@@ -6220,7 +6216,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>3.6</v>
       </c>
@@ -6247,7 +6243,7 @@
       <c r="R3"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>3.5</v>
       </c>
@@ -6274,7 +6270,7 @@
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>3.2</v>
       </c>
@@ -6309,7 +6305,7 @@
       <c r="R5"/>
       <c r="S5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>3.6</v>
       </c>
@@ -6352,7 +6348,7 @@
       <c r="R6"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>4.5</v>
       </c>
@@ -6387,7 +6383,7 @@
       <c r="R7"/>
       <c r="S7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>3.6</v>
       </c>
@@ -6430,7 +6426,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>3.6</v>
       </c>
@@ -6465,7 +6461,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>3.6</v>
       </c>
@@ -6508,7 +6504,7 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>3.2</v>
       </c>
@@ -6543,7 +6539,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>3.2</v>
       </c>
@@ -6578,7 +6574,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>2.4</v>
       </c>
@@ -6613,14 +6609,14 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
@@ -6640,16 +6636,14 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
@@ -6669,7 +6663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -6681,7 +6675,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -6695,7 +6689,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>1.5</v>
       </c>
@@ -6711,7 +6705,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -6725,7 +6719,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0</v>
       </c>
@@ -6741,7 +6735,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -6757,7 +6751,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -6775,7 +6769,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -6793,7 +6787,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0</v>
       </c>
@@ -6811,7 +6805,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -6827,7 +6821,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -6845,7 +6839,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -6879,12 +6873,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -6898,7 +6892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>0.1</v>
       </c>
@@ -6912,7 +6906,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>15</v>
       </c>
@@ -6926,7 +6920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>2.93</v>
       </c>
@@ -6940,7 +6934,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>10.8</v>
       </c>
